--- a/BOM V1/BOM_SMA_Driver_V1.0_Order_3xPCBs.xlsx
+++ b/BOM V1/BOM_SMA_Driver_V1.0_Order_3xPCBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\MIT\Fall 2018\FLAPS\KiCad Design\SMA_Driver_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\MIT\Fall 2018\FLAPS\KiCad Design\SMA_Driver_V1\BOM V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3AAEB-F717-4641-BA19-384273BBA202}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C200002-88B1-4BAC-9F64-E127642510CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{F9C64F1D-71CA-4EC5-8E02-A1DED59EAB70}"/>
   </bookViews>
@@ -513,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +523,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -551,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -574,6 +586,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -892,7 +908,7 @@
   <dimension ref="A2:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +955,7 @@
       <c r="B3" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -969,7 +985,7 @@
       <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -999,7 +1015,7 @@
       <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1027,7 +1043,7 @@
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1054,7 +1070,7 @@
       <c r="B7" s="8">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1083,7 +1099,7 @@
       <c r="B8" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1112,7 +1128,7 @@
       <c r="B9" s="8">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1141,7 +1157,7 @@
       <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1170,7 +1186,7 @@
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1199,7 +1215,7 @@
       <c r="B12" s="8">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1228,7 +1244,7 @@
       <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1257,7 +1273,7 @@
       <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1286,7 +1302,7 @@
       <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1315,7 +1331,7 @@
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1344,7 +1360,7 @@
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1373,7 +1389,7 @@
       <c r="B18" s="8">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1402,7 +1418,7 @@
       <c r="B19" s="8">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1431,7 +1447,7 @@
       <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1458,7 +1474,7 @@
       <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1485,7 +1501,7 @@
       <c r="B22" s="8">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1514,7 +1530,7 @@
       <c r="B23" s="8">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1543,7 +1559,7 @@
       <c r="B24" s="8">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1572,7 +1588,7 @@
       <c r="B25" s="8">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1601,7 +1617,7 @@
       <c r="B26" s="8">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1630,7 +1646,7 @@
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1659,7 +1675,7 @@
       <c r="B28" s="8">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="18" t="s">
         <v>138</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1688,7 +1704,7 @@
       <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1717,7 +1733,7 @@
       <c r="B30" s="8">
         <v>5</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D30" s="10" t="s">
